--- a/test/test2/EmployeeRates.xlsx
+++ b/test/test2/EmployeeRates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Linarc Inc\excel_upload\test\test2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC0344C-6F2D-452A-AFA9-D819C870A6D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F38B41C-8B0F-45C4-A9BD-B904C51AD2AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="768" windowWidth="10128" windowHeight="12192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="168" windowWidth="10128" windowHeight="12192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Employee ID</t>
-  </si>
-  <si>
     <t>CTC</t>
   </si>
   <si>
@@ -37,6 +34,9 @@
   </si>
   <si>
     <t>FB Rate</t>
+  </si>
+  <si>
+    <t>Employee-ID</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -483,16 +483,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
